--- a/전기안전관리법.xlsx
+++ b/전기안전관리법.xlsx
@@ -250,452 +250,340 @@
     <t>법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제46조부터 제50조까지의 어느 하나에 해당하는 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리 하지 아니한 경우에는 그러하지 아니하다</t>
   </si>
   <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 전기재해 예방 등 체계적인 전기안전관리를 위하여 5년마다 전기안전관리에 관한 기본계획(이하 "기본계획"이라 한다)을 수립·시행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 기본계획에는 다음 각 호의 사항이 포함되어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관은 기본계획을 수립하거나 변경하려면 미리 관계 중앙행정기관의 장과 협의한 후 「에너지법」 제9조에 따른 에너지위원회의 심의를 거쳐 이를 확정한다. 다만, 대통령령으로 정하는 경미한 사항을 변경하려는 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 산업통상자원부장관은 기본계획의 수립·시행을 위하여 필요한 경우 관계 중앙행정기관의 장, 특별시장·광역시장·특별자치시장·도지사·특별자치도지사(이하 "시·도지사"라 한다) 또는 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장에게 관련 자료의 제출이나 협력을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 산업통상자원부장관은 기본계획을 수립 또는 변경한 경우에는 관계 중앙행정기관의 장, 시·도지사 및 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관(전기안전관리에 관한 업무를 수행하는 공공기관에 한정한다)의 장에게 통보하고, 공고(인터넷 게재를 포함한다)하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항부터 제5항까지의 규정에 따른 기본계획의 수립·변경 및 시행에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 전기안전관리 정책을 원활하게 수립·추진하기 위하여 필요한 경우 전기안전관리와 관련된 전문기관·단체 등으로 구성된 자문기구(이하 "전기안전자문기구"라 한다)를 설치·운영할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관은 전기안전자문기구가 원활하게 운영될 수 있도록 필요한 행정적·재정적 지원을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 전기안전자문기구의 구성 및 운영 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 전기안전관리 관련 기술의 연구·개발이 필요한 경우에는 다음 각 호의 어느 하나에 해당하는 기관이나 단체로 하여금 이를 수행하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관은 제1항에 따른 연구·개발에 필요한 재정적 지원을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 자가용전기설비의 설치공사 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 그 공사계획에 대하여 산업통상자원부장관의 인가를 받아야 한다. 인가받은 사항을 변경하려는 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 인가를 받아야 하는 공사 외의 자가용전기설비의 설치 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 공사를 시작하기 전에 시·도지사에게 신고하여야 한다. 신고한 사항을 변경하려는 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항 전단에도 불구하고 산업통상자원부령으로 정하는 저압(低壓)에 해당하는 자가용전기설비의 설치 또는 변경공사의 경우에는 제9조에 따른 사용전검사(使用前檢査) 신청으로 공사계획신고를 갈음할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 자가용전기설비의 소유자 또는 점유자는 전기설비가 사고·재해 또는 그 밖의 사유로 멸실·파손되거나 전시·사변 등 비상사태가 발생하여 부득이하게 공사를 하여야 하는 경우에는 제1항 및 제2항에도 불구하고 산업통상자원부령으로 정하는 바에 따라 공사를 시작한 후 지체 없이 그 사실을 산업통상자원부장관 또는 시·도지사에게 신고하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항에 따른 인가 및 제2항·제4항에 따른 신고에 필요한 사항은 산업통상자원부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관 또는 시·도지사는 제9조에 따른 검사에 불합격한 경우에도 안전상 지장이 없고 자가용전기설비의 임시사용이 필요하다고 인정되는 경우에는 1년의 범위에서 사용 기간 및 방법을 정하여 그 설비를 임시로 사용하게 할 수 있다. 이 경우 산업통상자원부장관 또는 시·도지사는 그 사용 기간 및 방법을 정하여 통지를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 비상용 예비발전기가 완공되지 아니할 경우 등 제1항에 따른 전기설비 임시사용의 허용기준, 1년의 범위에서의 사용기간, 전기설비의 임시사용방법, 그 밖에 필요한 사항은 산업통상자원부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 산업통상자원부령으로 정하는 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관 또는 시·도지사로부터 정기적으로 검사를 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 「전기사업법」 제2조제6호 및 제8호에 따른 송전사업자 및 배전사업자가 같은 법 제65조의2에 따라 자체 검사를 실시한 경우에는 제1항에 따른 검사를 받은 것으로 본다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 일반용전기설비가 「전기사업법」 제67조에 따른 기술기준(이하 "기술기준"이라 한다)에 적합한지 여부에 대하여 산업통상자원부령으로 정하는 바에 따라 그 전기설비의 사용 전과 사용 중에 정기적으로 안전공사 또는 전기판매사업자로 하여금 점검(전기판매사업자는 사용전점검 중 대통령령으로 정하는 전기설비의 경우에 한정한다. 이하 이 조에서 같다)하도록 하여야 한다. 다만, 주거용 시설물에 설치된 일반용전기설비를 정기적으로 점검(이하 "정기점검"이라 한다)하는 경우 그 소유자 또는 점유자로부터 점검의 승낙을 받을 수 없는 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 안전공사 및 전기판매사업자는 제1항 본문에 따른 점검 결과 일반용전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 다음 각 호의 사항을 그 소유자 또는 점유자에게 통지하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 안전공사는 정기점검 결과 기술기준에 부합하지 아니한 전기설비 중 경미한 수리(「전기공사업법」 제3조제1항 단서에 따른 경미한 전기공사에 한정한다)가 필요한 경우로서 해당 전기설비의 소유자 또는 점유자의 요청이 있는 경우에는 직접 이를 수리할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 안전공사 및 전기판매사업자는 제1항 또는 제2항에 따른 점검 또는 통지에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 안전공사는 제2항에 따라 통지한 사항의 조치 이행 여부를 점검한 결과 그 소유자 또는 점유자가 통지를 받고도 같은 항 제1호의 조치를 하지 아니한 경우에는 특별자치도지사·특별자치시장·시장·군수·구청장(구청장은 자치구의 구청장을 말한다. 이하 "시장·군수·구청장"이라 한다)에게 그 조치 불이행 사실을 통보하여야 한다. 이 경우 시장·군수·구청장은 그 소유자 또는 점유자에게 그 전기설비의 수리·개조 또는 이전에 관한 명령(이하 "개선명령"이라 한다)을 하여야 하되, 전기설비가 기술기준에 적합하지 아니한 사항이 중대하여 시장·군수·구청장의 개선명령을 기다릴 여유가 없다고 인정되는 경우로서 산업통상자원부령으로 정하는 경우에는 안전공사가 직접 개선명령을 한 후 이를 시장·군수·구청장에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 시장·군수·구청장은 일반용전기설비의 소유자 또는 점유자가 개선명령(안전공사가 직접 개선명령을 한 경우를 포함한다)을 이행하지 아니하여 전기로 인한 재해가 발생할 우려가 크다고 인정되는 경우에는 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 그 소유자 또는 점유자에 대한 전기의 공급을 정지하여 줄 것을 요청하고 그 개선명령을 이행하지 아니한 내용을 즉시 안전공사에 통보하여야 한다. 이 경우 전기공급의 정지요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 안전공사는 제1항에 따른 점검에 필요한 자료를 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 요청할 수 있다. 이 경우 자료요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 제1항에 따라 점검을 하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑨ 제1항에 따른 점검의 기준·방법과 그 밖에 필요한 사항은 산업통상자원부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑩ 구역전기사업자에 관하여는 제1항, 제2항, 제4항 및 제6항부터 제9항까지의 규정을 준용한다. 이 경우 "전기판매사업자"는 "구역전기사업자"로 본다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 시설을 운영하려거나 그 시설을 증축 또는 개축하려는 자는 그 시설을 운영하기 위하여 다음 각 호의 법령에서 규정된 허가신청·등록신청·인가신청·신고(그 시설의 소재지 변경에 따른 변경허가신청·변경등록신청·변경인가신청·변경신고를 포함한다) 또는 「건축법」에 따른 건축물의 사용승인신청을 하기 전에 그 시설에 설치된 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 「문화재보호법」에 따른 지정문화재 및 그 보호구역의 시설에 대하여 같은 법 제35조제1항제1호·제2호에 따른 현상변경(같은 법 제74조에 따라 준용되는 경우를 포함한다. 이하 같다)을 하려는 자는 그 현상변경이 끝난 후 제1항에 따라 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 안전공사는 제1항과 제2항에 따라 안전점검에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 다음 각 호의 시설에 설치된 자가용전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로 하여금 정기적으로 점검을 하도록 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 안전점검에 관하여는 제12조제2항부터 제9항까지의 규정을 준용한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 다음 각 호의 시설에 설치된 전기설비가 기술기준에 적합한지 여부에 대하여 안전공사로 하여금 특별안전점검을 하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 안전공사는 제1항에 따른 특별안전점검의 결과를 전기설비의 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관은 전기설비(전기사업용전기설비는 제외한다)의 소유자 또는 점유자가 전기사용상의 불편 해소나 안전 확보에 필요한 응급조치를 요청하는 경우에는 안전공사로 하여금 신속히 응급조치를 하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제3항에 따른 응급조치의 대상, 범위 등에 관한 세부사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 전기재해 예방을 위하여 전기재해가 발생하거나 발생할 우려가 현저하여 긴급히 안전점검이 필요하다고 인정되는 시설에 대하여 소속 공무원 또는 안전공사에 산업통상자원부령으로 정하는 바에 따라 긴급점검을 하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관 또는 안전공사는 제1항에 따른 긴급점검 결과를 전기사업자 및 자가용·일반용전기설비 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관은 제1항에 따른 긴급점검을 실시한 결과 전기재해 발생으로 인명 또는 재산피해의 우려가 현저하다고 인정되는 시설에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기사업자 및 자가용·일반용전기설비의 소유자 또는 점유자에게 전기설비의 개수·철거·이전 또는 공사중지, 사용정지, 운용제한, 그 밖의 필요한 조치를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 산업통상자원부장관은 제40조제3항에 따른 사고조사 결과가 인명 또는 재산피해의 우려가 현저할 경우에는 제3항에 따른 조치를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 산업통상자원부장관은 제3항 및 제4항에 따른 명령으로 인하여 손실을 입은 자가 있는 경우에는 대통령령으로 정하는 바에 따라 손실을 보상할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관 또는 시·도지사는 제11조·제12조·제14조에 따른 검사 및 점검의 결과에 따라 전기설비의 안전등급을 지정하고 해당 전기설비의 소유자 및 점유자에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에도 불구하고 산업통상자원부장관 또는 시·도지사는 다음 각 호의 어느 하나에 해당하는 경우에는 해당 전기설비의 안전등급을 변경할 수 있다. 이 경우 해당 전기설비의 소유자나 점유자에게 그 변경 사실을 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관 또는 시·도지사는 제1항에 따른 전기설비의 안전등급에 따라 해당 전기설비에 대한 제11조·제12조·제14조에 따른 검사 및 점검의 시기를 조정할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지 규정에 따른 안전등급의 지정대상 및 기준·방법·절차 등에 필요한 사항은 산업통상자원부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관 또는 시·도지사는 대통령령으로 정하는 바에 따라 전기설비의 검사 및 점검 결과 등 전기안전관리에 관한 정보를 「공공기관의 정보공개에 관한 법률」에 따라 제38조의 전기안전종합정보시스템에 공개할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 정보공개 대상, 방법, 절차에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 전기사업자나 자가용전기설비의 소유자 또는 점유자는 전기설비(휴지 중인 전기설비는 제외한다)의 공사·유지 및 운용에 관한 전기안전관리업무를 수행하게 하기 위하여 산업통상자원부령으로 정하는 바에 따라 「국가기술자격법」에 따른 전기·기계·토목 분야의 기술자격을 취득한 사람 중에서 각 분야별로 전기안전관리자를 선임하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에도 불구하고 자가용전기설비의 소유자 또는 점유자는 전기안전관리에 관한 업무를 다음 각 호의 자에게 위탁할 수 있다. 이 경우 안전관리업무를 위탁받은 자는 제1항에 따른 분야별 전기안전관리자를 선임하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에도 불구하고 산업통상자원부령으로 정하는 규모 이하의 전기설비(자가용전기설비와 「신에너지 및 재생에너지 개발·이용·보급 촉진법」 제2조에 따른 태양에너지 및 연료전지를 이용하여 전기를 생산하는 발전설비만 해당한다)의 소유자 또는 점유자는 다음 각 호의 어느 하나에 해당하는 자에게 산업통상자원부령으로 정하는 바에 따라 전기안전관리업무를 대행하게 할 수 있고, 전기안전관리업무를 대행하는 자는 전기안전관리자로 선임된 것으로 본다. 다만, 제1호에 따른 안전공사는 격지, 오지 등 산업통상자원부령으로 정하는 지역으로서 산업통상자원부장관이 정하는 전기설비에 한정하여 대행할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지의 규정에도 불구하고 전기안전관리자를 선임 또는 선임 의제(擬制)하는 것이 곤란하거나 적합하지 아니하다고 인정되는 지역 또는 전기설비에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자를 선임할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임한 자는 전기안전관리자가 여행·질병이나 그 밖의 사유로 일시적으로 그 직무를 수행할 수 없는 경우에는 그 기간 동안, 전기안전관리자를 해임한 경우에는 다른 전기안전관리자를 선임하기 전까지 산업통상자원부령으로 정하는 바에 따라 대행자를 각각 지정하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항부터 제4항까지의 규정에 따른 전기안전관리자의 세부기술자격 및 직무와 제3항에 따라 전기안전관리업무를 대행하는 자가 준수하여야 하는 전기안전관리 대행업무의 범위, 업무량 및 최소점검횟수에 관한 사항은 산업통상자원부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 제3항에 따라 전기안전관리업무를 대행하게 하는 경우의 대가(代價)는 「엔지니어링산업 진흥법」 제31조에 따른 엔지니어링사업의 대가 기준 중에서 산업통상자원부령으로 정하는 방식에 따라 산정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 제1항에 따라 전기안전관리자를 선임한 자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 필요한 장비를 보유하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제22조제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임 또는 해임한 자는 산업통상자원부령으로 정하는 바에 따라 지체 없이 그 사실을 「전력기술관리법」 제18조제1항에 따른 전력기술인단체 중 산업통상자원부장관이 정하여 고시하는 단체(이하 "전력기술인단체"라 한다)에 신고하여야 한다. 신고한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 전기안전관리자의 선임신고를 한 자가 선임신고증명서의 발급을 요구한 경우에는 전력기술인단체는 산업통상자원부령으로 정하는 바에 따라 선임신고증명서를 발급하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 전기안전관리자의 해임신고를 한 자는 해임한 날부터 30일 이내에 다른 전기안전관리자를 선임하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 전기안전관리자는 제22조제6항에 따른 직무를 성실히 수행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 전기사업자 및 자가용전기설비의 소유자 또는 점유자(제22조제2항에 따라 전기안전관리업무를 위탁받은 자를 포함한다)와 그 종업원은 전기안전관리자의 전기안전관리에 관한 의견에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 전기안전관리자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 관한 기록을 작성·보존 및 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 전기안전관리자는 전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자에게 그 전기설비의 수리·개조·이전 등 필요한 조치를 요구하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 전기안전관리자로부터 제4항에 따른 조치요구를 받은 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 지체 없이 이에 따라야 한다. 이 경우 이에 따른 조치요구를 이유로 전기안전관리자를 해임하거나 보수의 지급을 거부하는 등 불이익한 처우를 하여서는 아니 된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 전기안전관리자 및 「전기공사업법」 제17조에 따른 시공관리책임자(이하 "시공관리책임자"라 한다)는 산업통상자원부장관이 실시하는 다음 각 호에 따라 교육(이하 "전기안전교육"이라 한다)을 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관은 필요한 경우 이론교육과 실습교육을 병행하여 전기안전교육을 실시할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 전기안전교육을 수료한 전기안전관리자 또는 시공관리책임자에 대하여 교육수료증을 발급할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 전기안전관리자를 선임한 자는 정당한 사유 없이 전기안전교육을 받지 아니한 전기안전관리자를 해임하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 「전기공사업법」 제2조제3호에 따른 공사업자는 정당한 사유 없이 안전시공교육을 받지 아니한 시공관리책임자의 지정을 취소하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 그 밖에 전기안전교육의 실시에 필요한 사항은 산업통상자원부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제22조제2항 및 제3항에 따라 전기안전관리업무를 위탁받거나 대행하려는 자는 다음 각 호의 구분에 따라 산업통상자원부장관 또는 시·도지사에게 등록을 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 등록한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에는 변경 사유가 발생한 날부터 30일 이내에 변경등록을 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관 또는 시·도지사는 제1항 및 제2항에 따라 등록이나 변경등록을 받은 경우에는 등록신청자에게 등록증을 발급하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자는 제26조제1항에 따른 등록을 할 수 없다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관 또는 시·도지사는 제26조제1항에 따라 각각 등록한 자가 다음 각 호의 어느 하나에 해당하는 경우에는 그 등록을 취소하거나 산업통상자원부령으로 정하는 바에 따라 6개월 이내의 기간을 정하여 업무의 전부 또는 일부의 정지를 명할 수 있다. 다만, 제1호에 해당하는 경우에는 그 등록을 취소하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 매년 1회 이상 전기안전관리업무에 대한 실태조사를 실시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관은 제1항에 따른 실태조사 결과 전기안전관리에 필요하다고 인정될 때에는 전기설비의 소유자 또는 점유자에게 전기설비의 안전관리에 관하여 개선을 권고하거나 시정을 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 시·도지사는 전기안전관리업무 수행에 관한 사항을 점검하기 위하여 필요하다고 인정하면 제22조제2항 또는 같은 조 제3항제2호 및 제3호에 따라 전기안전관리업무를 위탁받아 수행하거나 대행하는 자(이하 이 조에서 "대행자등"이라 한다)에 대하여 필요한 자료의 제출을 명하거나, 소속 공무원으로 하여금 대행자등의 사업장 또는 대행자등이 전기안전관리업무를 수행하는 전기설비의 설치장소에 출입하여 장부·서류나 그 밖의 자료 또는 물건을 조사하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 산업통상자원부장관 또는 시·도지사는 제1항 및 제3항에 따른 조사를 하는 경우에는 조사 7일 전까지 조사 일시, 조사 이유 및 조사 내용을 포함한 조사계획을 조사대상자에게 알려야 한다. 다만, 긴급한 경우나 사전에 알리면 증거인멸 등으로 조사목적을 달성할 수 없다고 인정하는 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항 및 제3항에 따라 출입·조사하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 하며, 조사 시 그 조사의 일시·목적 등을 기록한 서류를 관계인에게 내주어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항에 따른 실태조사의 대상, 시기 등에 관하여 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 전기로 인한 재해를 예방하기 위하여 전기안전에 관한 조사·연구·기술개발 및 홍보업무와 전기설비에 대한 검사·점검업무를 수행하는 한국전기안전공사를 설립한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 안전공사는 법인으로 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 안전공사는 주된 사업소의 소재지에서 설립등기를 함으로써 성립한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 안전공사의 임원은 사장 1명, 이사 8명 이내와 감사 1명으로 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 사장은 안전공사를 대표하고, 그 사무를 총괄한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 전기안전관리에 관한 정보를 체계적으로 관리하기 위하여 전기안전종합정보시스템을 구축·운영할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관은 전기안전종합정보시스템을 구축·운영하기 위하여 필요한 경우에는 관계 중앙행정기관의 장, 시·도지사, 시장·군수·구청장, 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장 및 전기 관련 협회의 장 등에게 필요한 자료의 제공을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따른 전기안전종합정보시스템의 구축·운영에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 산업통상자원부령으로 정하는 바에 따라 전기설비의 검사·점검현황 등 전기안전에 관한 사항을 시·도지사, 시장·군수·구청장, 안전공사, 전기판매사업자 및 구역전기사업자로 하여금 보고하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 시·도지사는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자의 선임 및 해임에 관한 사항을 전력기술인단체로 하여금 보고하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 그가 운용하는 전기설비로 인하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 「전기사업법」 제35조에 따른 한국전력거래소는 전력계통의 운영과 관련하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관은 전기사고의 재발방지를 위하여 필요하다고 인정하는 경우에는 다음 각 호의 자로 하여금 대통령령으로 정하는 전기사고의 원인·경위 등에 관한 조사를 하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관은 전기안전관리 정책을 효과적으로 수립·시행하기 위하여 대통령령으로 정하는 바에 따라 전기재해에 관한 통계를 작성·관리할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 통계의 작성에 관하여 이 법에서 규정한 것 이외에는 「통계법」을 준용한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관은 안전공사 또는 전문성을 갖춘 기관을 지정하여 제1항에 따른 통계의 조사·작성·분석 및 관리에 관한 업무의 전부 또는 일부를 수행하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자는 산업통상자원부령으로 정하는 바에 따라 수수료를 내야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 다음 각 호의 어느 하나에 해당하는 사람은 산업통상자원부령으로 정하는 바에 따라 교육비를 내야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 이 법에 따른 산업통상자원부장관의 권한은 그 일부를 대통령령으로 정하는 바에 따라 그 소속 기관 또는 시·도지사에게 위임할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 각 호의 업무의 전부 또는 일부를 대통령령으로 정하는 바에 따라 안전공사에 위탁할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 제1호 및 제3호의 업무는 대통령령으로 정하는 바에 따라 전력기술인단체에, 제2호의 업무는 대통령령으로 정하는 바에 따라 「전기공사업법」 제25조제1항에 따른 공사업자단체(이하 "공사업자단체"라 한다)에 위탁할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 산업통상자원부장관 또는 시·도지사는 전력기술인단체 또는 공사업자단체의 수탁사무의 처리가 위법하거나 부당하다고 판단되는 경우 등 필요하다고 인정될 때에는 위탁사무에 관하여 필요한 지시를 하거나 시정을 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제1항에 따른 명령을 위반한 경우 위탁을 취소하거나 6개월 이내의 기간을 정하여 업무정지를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제2항에 해당하는 경우로서 그 업무정지가 전기안전관리자 또는 시공관리책임자에게 심한 불편을 주거나 그 밖에 공공의 이익을 해칠 우려가 있는 경우에는 업무정지 명령을 갈음하여 5천만원 이하의 과징금을 부과할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제2항에 따른 위반행위별 처분기준과 제3항에 따른 과징금의 부과기준은 산업통상자원부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 산업통상자원부장관은 제3항에 따른 과징금을 내야할 자가 납부기한까지 이를 내지 아니하면 국세 체납처분의 예에 따라 징수할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 다음 각 호의 어느 하나에 해당하는 자에게는 100만원 이하의 과태료를 부과한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 및 제2항에 따른 과태료는 대통령령으로 정하는 바에 따라 산업통상자원부장관, 시·도지사 또는 시장·군수·구청장이 부과·징수한다.
-				</t>
+    <t>① 산업통상자원부장관은 전기재해 예방 등 체계적인 전기안전관리를 위하여 5년마다 전기안전관리에 관한 기본계획(이하 "기본계획"이라 한다)을 수립·시행하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 기본계획에는 다음 각 호의 사항이 포함되어야 한다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관은 기본계획을 수립하거나 변경하려면 미리 관계 중앙행정기관의 장과 협의한 후 「에너지법」 제9조에 따른 에너지위원회의 심의를 거쳐 이를 확정한다. 다만, 대통령령으로 정하는 경미한 사항을 변경하려는 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>④ 산업통상자원부장관은 기본계획의 수립·시행을 위하여 필요한 경우 관계 중앙행정기관의 장, 특별시장·광역시장·특별자치시장·도지사·특별자치도지사(이하 "시·도지사"라 한다) 또는 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장에게 관련 자료의 제출이나 협력을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 산업통상자원부장관은 기본계획을 수립 또는 변경한 경우에는 관계 중앙행정기관의 장, 시·도지사 및 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관(전기안전관리에 관한 업무를 수행하는 공공기관에 한정한다)의 장에게 통보하고, 공고(인터넷 게재를 포함한다)하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 제1항부터 제5항까지의 규정에 따른 기본계획의 수립·변경 및 시행에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 전기안전관리 정책을 원활하게 수립·추진하기 위하여 필요한 경우 전기안전관리와 관련된 전문기관·단체 등으로 구성된 자문기구(이하 "전기안전자문기구"라 한다)를 설치·운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관은 전기안전자문기구가 원활하게 운영될 수 있도록 필요한 행정적·재정적 지원을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 전기안전자문기구의 구성 및 운영 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 전기안전관리 관련 기술의 연구·개발이 필요한 경우에는 다음 각 호의 어느 하나에 해당하는 기관이나 단체로 하여금 이를 수행하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관은 제1항에 따른 연구·개발에 필요한 재정적 지원을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 자가용전기설비의 설치공사 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 그 공사계획에 대하여 산업통상자원부장관의 인가를 받아야 한다. 인가받은 사항을 변경하려는 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 인가를 받아야 하는 공사 외의 자가용전기설비의 설치 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 공사를 시작하기 전에 시·도지사에게 신고하여야 한다. 신고한 사항을 변경하려는 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>③ 제2항 전단에도 불구하고 산업통상자원부령으로 정하는 저압(低壓)에 해당하는 자가용전기설비의 설치 또는 변경공사의 경우에는 제9조에 따른 사용전검사(使用前檢査) 신청으로 공사계획신고를 갈음할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 자가용전기설비의 소유자 또는 점유자는 전기설비가 사고·재해 또는 그 밖의 사유로 멸실·파손되거나 전시·사변 등 비상사태가 발생하여 부득이하게 공사를 하여야 하는 경우에는 제1항 및 제2항에도 불구하고 산업통상자원부령으로 정하는 바에 따라 공사를 시작한 후 지체 없이 그 사실을 산업통상자원부장관 또는 시·도지사에게 신고하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 제1항에 따른 인가 및 제2항·제4항에 따른 신고에 필요한 사항은 산업통상자원부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관 또는 시·도지사는 제9조에 따른 검사에 불합격한 경우에도 안전상 지장이 없고 자가용전기설비의 임시사용이 필요하다고 인정되는 경우에는 1년의 범위에서 사용 기간 및 방법을 정하여 그 설비를 임시로 사용하게 할 수 있다. 이 경우 산업통상자원부장관 또는 시·도지사는 그 사용 기간 및 방법을 정하여 통지를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 비상용 예비발전기가 완공되지 아니할 경우 등 제1항에 따른 전기설비 임시사용의 허용기준, 1년의 범위에서의 사용기간, 전기설비의 임시사용방법, 그 밖에 필요한 사항은 산업통상자원부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 산업통상자원부령으로 정하는 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관 또는 시·도지사로부터 정기적으로 검사를 받아야 한다.</t>
+  </si>
+  <si>
+    <t>② 「전기사업법」 제2조제6호 및 제8호에 따른 송전사업자 및 배전사업자가 같은 법 제65조의2에 따라 자체 검사를 실시한 경우에는 제1항에 따른 검사를 받은 것으로 본다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 일반용전기설비가 「전기사업법」 제67조에 따른 기술기준(이하 "기술기준"이라 한다)에 적합한지 여부에 대하여 산업통상자원부령으로 정하는 바에 따라 그 전기설비의 사용 전과 사용 중에 정기적으로 안전공사 또는 전기판매사업자로 하여금 점검(전기판매사업자는 사용전점검 중 대통령령으로 정하는 전기설비의 경우에 한정한다. 이하 이 조에서 같다)하도록 하여야 한다. 다만, 주거용 시설물에 설치된 일반용전기설비를 정기적으로 점검(이하 "정기점검"이라 한다)하는 경우 그 소유자 또는 점유자로부터 점검의 승낙을 받을 수 없는 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>② 안전공사 및 전기판매사업자는 제1항 본문에 따른 점검 결과 일반용전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 다음 각 호의 사항을 그 소유자 또는 점유자에게 통지하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 안전공사는 정기점검 결과 기술기준에 부합하지 아니한 전기설비 중 경미한 수리(「전기공사업법」 제3조제1항 단서에 따른 경미한 전기공사에 한정한다)가 필요한 경우로서 해당 전기설비의 소유자 또는 점유자의 요청이 있는 경우에는 직접 이를 수리할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 안전공사 및 전기판매사업자는 제1항 또는 제2항에 따른 점검 또는 통지에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 안전공사는 제2항에 따라 통지한 사항의 조치 이행 여부를 점검한 결과 그 소유자 또는 점유자가 통지를 받고도 같은 항 제1호의 조치를 하지 아니한 경우에는 특별자치도지사·특별자치시장·시장·군수·구청장(구청장은 자치구의 구청장을 말한다. 이하 "시장·군수·구청장"이라 한다)에게 그 조치 불이행 사실을 통보하여야 한다. 이 경우 시장·군수·구청장은 그 소유자 또는 점유자에게 그 전기설비의 수리·개조 또는 이전에 관한 명령(이하 "개선명령"이라 한다)을 하여야 하되, 전기설비가 기술기준에 적합하지 아니한 사항이 중대하여 시장·군수·구청장의 개선명령을 기다릴 여유가 없다고 인정되는 경우로서 산업통상자원부령으로 정하는 경우에는 안전공사가 직접 개선명령을 한 후 이를 시장·군수·구청장에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 시장·군수·구청장은 일반용전기설비의 소유자 또는 점유자가 개선명령(안전공사가 직접 개선명령을 한 경우를 포함한다)을 이행하지 아니하여 전기로 인한 재해가 발생할 우려가 크다고 인정되는 경우에는 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 그 소유자 또는 점유자에 대한 전기의 공급을 정지하여 줄 것을 요청하고 그 개선명령을 이행하지 아니한 내용을 즉시 안전공사에 통보하여야 한다. 이 경우 전기공급의 정지요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>⑦ 안전공사는 제1항에 따른 점검에 필요한 자료를 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 요청할 수 있다. 이 경우 자료요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>⑧ 제1항에 따라 점검을 하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.</t>
+  </si>
+  <si>
+    <t>⑨ 제1항에 따른 점검의 기준·방법과 그 밖에 필요한 사항은 산업통상자원부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>⑩ 구역전기사업자에 관하여는 제1항, 제2항, 제4항 및 제6항부터 제9항까지의 규정을 준용한다. 이 경우 "전기판매사업자"는 "구역전기사업자"로 본다.</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 시설을 운영하려거나 그 시설을 증축 또는 개축하려는 자는 그 시설을 운영하기 위하여 다음 각 호의 법령에서 규정된 허가신청·등록신청·인가신청·신고(그 시설의 소재지 변경에 따른 변경허가신청·변경등록신청·변경인가신청·변경신고를 포함한다) 또는 「건축법」에 따른 건축물의 사용승인신청을 하기 전에 그 시설에 설치된 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다.</t>
+  </si>
+  <si>
+    <t>② 「문화재보호법」에 따른 지정문화재 및 그 보호구역의 시설에 대하여 같은 법 제35조제1항제1호·제2호에 따른 현상변경(같은 법 제74조에 따라 준용되는 경우를 포함한다. 이하 같다)을 하려는 자는 그 현상변경이 끝난 후 제1항에 따라 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다.</t>
+  </si>
+  <si>
+    <t>③ 안전공사는 제1항과 제2항에 따라 안전점검에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 다음 각 호의 시설에 설치된 자가용전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로 하여금 정기적으로 점검을 하도록 하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 안전점검에 관하여는 제12조제2항부터 제9항까지의 규정을 준용한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 다음 각 호의 시설에 설치된 전기설비가 기술기준에 적합한지 여부에 대하여 안전공사로 하여금 특별안전점검을 하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 안전공사는 제1항에 따른 특별안전점검의 결과를 전기설비의 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관은 전기설비(전기사업용전기설비는 제외한다)의 소유자 또는 점유자가 전기사용상의 불편 해소나 안전 확보에 필요한 응급조치를 요청하는 경우에는 안전공사로 하여금 신속히 응급조치를 하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제3항에 따른 응급조치의 대상, 범위 등에 관한 세부사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 전기재해 예방을 위하여 전기재해가 발생하거나 발생할 우려가 현저하여 긴급히 안전점검이 필요하다고 인정되는 시설에 대하여 소속 공무원 또는 안전공사에 산업통상자원부령으로 정하는 바에 따라 긴급점검을 하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관 또는 안전공사는 제1항에 따른 긴급점검 결과를 전기사업자 및 자가용·일반용전기설비 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관은 제1항에 따른 긴급점검을 실시한 결과 전기재해 발생으로 인명 또는 재산피해의 우려가 현저하다고 인정되는 시설에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기사업자 및 자가용·일반용전기설비의 소유자 또는 점유자에게 전기설비의 개수·철거·이전 또는 공사중지, 사용정지, 운용제한, 그 밖의 필요한 조치를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 산업통상자원부장관은 제40조제3항에 따른 사고조사 결과가 인명 또는 재산피해의 우려가 현저할 경우에는 제3항에 따른 조치를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 산업통상자원부장관은 제3항 및 제4항에 따른 명령으로 인하여 손실을 입은 자가 있는 경우에는 대통령령으로 정하는 바에 따라 손실을 보상할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관 또는 시·도지사는 제11조·제12조·제14조에 따른 검사 및 점검의 결과에 따라 전기설비의 안전등급을 지정하고 해당 전기설비의 소유자 및 점유자에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에도 불구하고 산업통상자원부장관 또는 시·도지사는 다음 각 호의 어느 하나에 해당하는 경우에는 해당 전기설비의 안전등급을 변경할 수 있다. 이 경우 해당 전기설비의 소유자나 점유자에게 그 변경 사실을 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관 또는 시·도지사는 제1항에 따른 전기설비의 안전등급에 따라 해당 전기설비에 대한 제11조·제12조·제14조에 따른 검사 및 점검의 시기를 조정할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지 규정에 따른 안전등급의 지정대상 및 기준·방법·절차 등에 필요한 사항은 산업통상자원부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관 또는 시·도지사는 대통령령으로 정하는 바에 따라 전기설비의 검사 및 점검 결과 등 전기안전관리에 관한 정보를 「공공기관의 정보공개에 관한 법률」에 따라 제38조의 전기안전종합정보시스템에 공개할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 정보공개 대상, 방법, 절차에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 전기사업자나 자가용전기설비의 소유자 또는 점유자는 전기설비(휴지 중인 전기설비는 제외한다)의 공사·유지 및 운용에 관한 전기안전관리업무를 수행하게 하기 위하여 산업통상자원부령으로 정하는 바에 따라 「국가기술자격법」에 따른 전기·기계·토목 분야의 기술자격을 취득한 사람 중에서 각 분야별로 전기안전관리자를 선임하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에도 불구하고 자가용전기설비의 소유자 또는 점유자는 전기안전관리에 관한 업무를 다음 각 호의 자에게 위탁할 수 있다. 이 경우 안전관리업무를 위탁받은 자는 제1항에 따른 분야별 전기안전관리자를 선임하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에도 불구하고 산업통상자원부령으로 정하는 규모 이하의 전기설비(자가용전기설비와 「신에너지 및 재생에너지 개발·이용·보급 촉진법」 제2조에 따른 태양에너지 및 연료전지를 이용하여 전기를 생산하는 발전설비만 해당한다)의 소유자 또는 점유자는 다음 각 호의 어느 하나에 해당하는 자에게 산업통상자원부령으로 정하는 바에 따라 전기안전관리업무를 대행하게 할 수 있고, 전기안전관리업무를 대행하는 자는 전기안전관리자로 선임된 것으로 본다. 다만, 제1호에 따른 안전공사는 격지, 오지 등 산업통상자원부령으로 정하는 지역으로서 산업통상자원부장관이 정하는 전기설비에 한정하여 대행할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지의 규정에도 불구하고 전기안전관리자를 선임 또는 선임 의제(擬制)하는 것이 곤란하거나 적합하지 아니하다고 인정되는 지역 또는 전기설비에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자를 선임할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임한 자는 전기안전관리자가 여행·질병이나 그 밖의 사유로 일시적으로 그 직무를 수행할 수 없는 경우에는 그 기간 동안, 전기안전관리자를 해임한 경우에는 다른 전기안전관리자를 선임하기 전까지 산업통상자원부령으로 정하는 바에 따라 대행자를 각각 지정하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 제1항부터 제4항까지의 규정에 따른 전기안전관리자의 세부기술자격 및 직무와 제3항에 따라 전기안전관리업무를 대행하는 자가 준수하여야 하는 전기안전관리 대행업무의 범위, 업무량 및 최소점검횟수에 관한 사항은 산업통상자원부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>⑦ 제3항에 따라 전기안전관리업무를 대행하게 하는 경우의 대가(代價)는 「엔지니어링산업 진흥법」 제31조에 따른 엔지니어링사업의 대가 기준 중에서 산업통상자원부령으로 정하는 방식에 따라 산정한다.</t>
+  </si>
+  <si>
+    <t>⑧ 제1항에 따라 전기안전관리자를 선임한 자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 필요한 장비를 보유하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 제22조제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임 또는 해임한 자는 산업통상자원부령으로 정하는 바에 따라 지체 없이 그 사실을 「전력기술관리법」 제18조제1항에 따른 전력기술인단체 중 산업통상자원부장관이 정하여 고시하는 단체(이하 "전력기술인단체"라 한다)에 신고하여야 한다. 신고한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 전기안전관리자의 선임신고를 한 자가 선임신고증명서의 발급을 요구한 경우에는 전력기술인단체는 산업통상자원부령으로 정하는 바에 따라 선임신고증명서를 발급하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 전기안전관리자의 해임신고를 한 자는 해임한 날부터 30일 이내에 다른 전기안전관리자를 선임하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 전기안전관리자는 제22조제6항에 따른 직무를 성실히 수행하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 전기사업자 및 자가용전기설비의 소유자 또는 점유자(제22조제2항에 따라 전기안전관리업무를 위탁받은 자를 포함한다)와 그 종업원은 전기안전관리자의 전기안전관리에 관한 의견에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>③ 전기안전관리자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 관한 기록을 작성·보존 및 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 전기안전관리자는 전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자에게 그 전기설비의 수리·개조·이전 등 필요한 조치를 요구하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 전기안전관리자로부터 제4항에 따른 조치요구를 받은 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 지체 없이 이에 따라야 한다. 이 경우 이에 따른 조치요구를 이유로 전기안전관리자를 해임하거나 보수의 지급을 거부하는 등 불이익한 처우를 하여서는 아니 된다.</t>
+  </si>
+  <si>
+    <t>① 전기안전관리자 및 「전기공사업법」 제17조에 따른 시공관리책임자(이하 "시공관리책임자"라 한다)는 산업통상자원부장관이 실시하는 다음 각 호에 따라 교육(이하 "전기안전교육"이라 한다)을 받아야 한다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관은 필요한 경우 이론교육과 실습교육을 병행하여 전기안전교육을 실시할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 전기안전교육을 수료한 전기안전관리자 또는 시공관리책임자에 대하여 교육수료증을 발급할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 전기안전관리자를 선임한 자는 정당한 사유 없이 전기안전교육을 받지 아니한 전기안전관리자를 해임하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 「전기공사업법」 제2조제3호에 따른 공사업자는 정당한 사유 없이 안전시공교육을 받지 아니한 시공관리책임자의 지정을 취소하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 그 밖에 전기안전교육의 실시에 필요한 사항은 산업통상자원부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제22조제2항 및 제3항에 따라 전기안전관리업무를 위탁받거나 대행하려는 자는 다음 각 호의 구분에 따라 산업통상자원부장관 또는 시·도지사에게 등록을 하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 등록한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에는 변경 사유가 발생한 날부터 30일 이내에 변경등록을 하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관 또는 시·도지사는 제1항 및 제2항에 따라 등록이나 변경등록을 받은 경우에는 등록신청자에게 등록증을 발급하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자는 제26조제1항에 따른 등록을 할 수 없다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관 또는 시·도지사는 제26조제1항에 따라 각각 등록한 자가 다음 각 호의 어느 하나에 해당하는 경우에는 그 등록을 취소하거나 산업통상자원부령으로 정하는 바에 따라 6개월 이내의 기간을 정하여 업무의 전부 또는 일부의 정지를 명할 수 있다. 다만, 제1호에 해당하는 경우에는 그 등록을 취소하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 매년 1회 이상 전기안전관리업무에 대한 실태조사를 실시하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관은 제1항에 따른 실태조사 결과 전기안전관리에 필요하다고 인정될 때에는 전기설비의 소유자 또는 점유자에게 전기설비의 안전관리에 관하여 개선을 권고하거나 시정을 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 시·도지사는 전기안전관리업무 수행에 관한 사항을 점검하기 위하여 필요하다고 인정하면 제22조제2항 또는 같은 조 제3항제2호 및 제3호에 따라 전기안전관리업무를 위탁받아 수행하거나 대행하는 자(이하 이 조에서 "대행자등"이라 한다)에 대하여 필요한 자료의 제출을 명하거나, 소속 공무원으로 하여금 대행자등의 사업장 또는 대행자등이 전기안전관리업무를 수행하는 전기설비의 설치장소에 출입하여 장부·서류나 그 밖의 자료 또는 물건을 조사하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 산업통상자원부장관 또는 시·도지사는 제1항 및 제3항에 따른 조사를 하는 경우에는 조사 7일 전까지 조사 일시, 조사 이유 및 조사 내용을 포함한 조사계획을 조사대상자에게 알려야 한다. 다만, 긴급한 경우나 사전에 알리면 증거인멸 등으로 조사목적을 달성할 수 없다고 인정하는 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>⑤ 제1항 및 제3항에 따라 출입·조사하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 하며, 조사 시 그 조사의 일시·목적 등을 기록한 서류를 관계인에게 내주어야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 제1항에 따른 실태조사의 대상, 시기 등에 관하여 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 전기로 인한 재해를 예방하기 위하여 전기안전에 관한 조사·연구·기술개발 및 홍보업무와 전기설비에 대한 검사·점검업무를 수행하는 한국전기안전공사를 설립한다.</t>
+  </si>
+  <si>
+    <t>② 안전공사는 법인으로 한다.</t>
+  </si>
+  <si>
+    <t>③ 안전공사는 주된 사업소의 소재지에서 설립등기를 함으로써 성립한다.</t>
+  </si>
+  <si>
+    <t>① 안전공사의 임원은 사장 1명, 이사 8명 이내와 감사 1명으로 한다.</t>
+  </si>
+  <si>
+    <t>② 사장은 안전공사를 대표하고, 그 사무를 총괄한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 전기안전관리에 관한 정보를 체계적으로 관리하기 위하여 전기안전종합정보시스템을 구축·운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관은 전기안전종합정보시스템을 구축·운영하기 위하여 필요한 경우에는 관계 중앙행정기관의 장, 시·도지사, 시장·군수·구청장, 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장 및 전기 관련 협회의 장 등에게 필요한 자료의 제공을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따른 전기안전종합정보시스템의 구축·운영에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 산업통상자원부령으로 정하는 바에 따라 전기설비의 검사·점검현황 등 전기안전에 관한 사항을 시·도지사, 시장·군수·구청장, 안전공사, 전기판매사업자 및 구역전기사업자로 하여금 보고하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 시·도지사는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자의 선임 및 해임에 관한 사항을 전력기술인단체로 하여금 보고하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 그가 운용하는 전기설비로 인하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 「전기사업법」 제35조에 따른 한국전력거래소는 전력계통의 운영과 관련하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관은 전기사고의 재발방지를 위하여 필요하다고 인정하는 경우에는 다음 각 호의 자로 하여금 대통령령으로 정하는 전기사고의 원인·경위 등에 관한 조사를 하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관은 전기안전관리 정책을 효과적으로 수립·시행하기 위하여 대통령령으로 정하는 바에 따라 전기재해에 관한 통계를 작성·관리할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 통계의 작성에 관하여 이 법에서 규정한 것 이외에는 「통계법」을 준용한다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관은 안전공사 또는 전문성을 갖춘 기관을 지정하여 제1항에 따른 통계의 조사·작성·분석 및 관리에 관한 업무의 전부 또는 일부를 수행하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자는 산업통상자원부령으로 정하는 바에 따라 수수료를 내야 한다.</t>
+  </si>
+  <si>
+    <t>② 다음 각 호의 어느 하나에 해당하는 사람은 산업통상자원부령으로 정하는 바에 따라 교육비를 내야 한다.</t>
+  </si>
+  <si>
+    <t>① 이 법에 따른 산업통상자원부장관의 권한은 그 일부를 대통령령으로 정하는 바에 따라 그 소속 기관 또는 시·도지사에게 위임할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 각 호의 업무의 전부 또는 일부를 대통령령으로 정하는 바에 따라 안전공사에 위탁할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 제1호 및 제3호의 업무는 대통령령으로 정하는 바에 따라 전력기술인단체에, 제2호의 업무는 대통령령으로 정하는 바에 따라 「전기공사업법」 제25조제1항에 따른 공사업자단체(이하 "공사업자단체"라 한다)에 위탁할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 산업통상자원부장관 또는 시·도지사는 전력기술인단체 또는 공사업자단체의 수탁사무의 처리가 위법하거나 부당하다고 판단되는 경우 등 필요하다고 인정될 때에는 위탁사무에 관하여 필요한 지시를 하거나 시정을 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제1항에 따른 명령을 위반한 경우 위탁을 취소하거나 6개월 이내의 기간을 정하여 업무정지를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제2항에 해당하는 경우로서 그 업무정지가 전기안전관리자 또는 시공관리책임자에게 심한 불편을 주거나 그 밖에 공공의 이익을 해칠 우려가 있는 경우에는 업무정지 명령을 갈음하여 5천만원 이하의 과징금을 부과할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제2항에 따른 위반행위별 처분기준과 제3항에 따른 과징금의 부과기준은 산업통상자원부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>⑤ 산업통상자원부장관은 제3항에 따른 과징금을 내야할 자가 납부기한까지 이를 내지 아니하면 국세 체납처분의 예에 따라 징수할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다.</t>
+  </si>
+  <si>
+    <t>② 다음 각 호의 어느 하나에 해당하는 자에게는 100만원 이하의 과태료를 부과한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항 및 제2항에 따른 과태료는 대통령령으로 정하는 바에 따라 산업통상자원부장관, 시·도지사 또는 시장·군수·구청장이 부과·징수한다.</t>
   </si>
   <si>
     <t>1. "전기안전관리"란 국민의 생명과 재산을 보호하기 위하여 전기설비의 공사·유지·관리 및 운용에 필요한 조치를 하는 것을 말한다.</t>
